--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\maradmin-alert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4E2B315-0235-4BF2-ABBB-5871FEC1B2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7148AA4C-9A4E-41DD-ABE9-8E333B6A8D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="305">
   <si>
     <t>first_name</t>
   </si>
@@ -890,14 +890,59 @@
   </si>
   <si>
     <t>unit</t>
+  </si>
+  <si>
+    <t>MALS-14</t>
+  </si>
+  <si>
+    <t>MAG-26</t>
+  </si>
+  <si>
+    <t>2nd RAD BN</t>
+  </si>
+  <si>
+    <t>1st CEB</t>
+  </si>
+  <si>
+    <t>3rd LAAB</t>
+  </si>
+  <si>
+    <t>1 MLG</t>
+  </si>
+  <si>
+    <t>8th ESB</t>
+  </si>
+  <si>
+    <t>3rd BN 12 MAR</t>
+  </si>
+  <si>
+    <t>LSSS Pendleton</t>
+  </si>
+  <si>
+    <t>CLB-1</t>
+  </si>
+  <si>
+    <t>MAG-31</t>
+  </si>
+  <si>
+    <t>CLB-2</t>
+  </si>
+  <si>
+    <t>2nd LAR</t>
+  </si>
+  <si>
+    <t>8th COMM</t>
+  </si>
+  <si>
+    <t>MALS-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1384,7 +1429,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1430,29 +1475,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1468,20 +1493,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H136" totalsRowShown="0">
-  <autoFilter ref="A1:H136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H138" totalsRowShown="0">
+  <autoFilter ref="A1:H138" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G136">
     <sortCondition ref="A1:A136"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="first_name"/>
-    <tableColumn id="2" name="last_name"/>
-    <tableColumn id="3" name="rank"/>
-    <tableColumn id="4" name="number" dataDxfId="2"/>
-    <tableColumn id="5" name="Personal Email"/>
-    <tableColumn id="6" name="Work Email"/>
-    <tableColumn id="7" name="EDIPI"/>
-    <tableColumn id="8" name="unit"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="first_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="last_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="rank"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="number" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Personal Email"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Work Email"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EDIPI"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1803,11 +1828,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1893,6 +1918,9 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
+      <c r="H5" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1956,6 +1984,9 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
+      <c r="H11" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2012,7 +2043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2020,7 +2051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2028,7 +2059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -2036,7 +2067,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2044,7 +2075,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2052,7 +2083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -2060,7 +2091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -2068,7 +2099,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>151</v>
       </c>
@@ -2076,7 +2107,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2084,7 +2115,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -2107,7 +2138,7 @@
         <v>1237638421</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -2115,15 +2146,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2131,7 +2165,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -2139,7 +2173,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -2147,7 +2181,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -2155,7 +2189,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -2163,7 +2197,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -2171,7 +2205,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -2179,7 +2213,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2187,7 +2221,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -2210,7 +2244,7 @@
         <v>1184774840</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -2218,7 +2252,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2226,7 +2260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -2234,7 +2268,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -2242,7 +2276,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -2250,15 +2284,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -2281,15 +2318,18 @@
         <v>1504941201</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>212</v>
       </c>
@@ -2312,7 +2352,7 @@
         <v>1143560763</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2320,7 +2360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>288</v>
       </c>
@@ -2328,7 +2368,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>200</v>
       </c>
@@ -2336,7 +2376,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2344,7 +2384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -2352,7 +2392,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -2360,7 +2400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -2368,7 +2408,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -2376,7 +2416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -2384,7 +2424,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -2392,7 +2432,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2400,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +2448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>187</v>
       </c>
@@ -2416,15 +2456,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>45</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>211</v>
       </c>
@@ -2447,7 +2490,7 @@
         <v>1385625886</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>82</v>
       </c>
@@ -2455,7 +2498,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -2463,7 +2506,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -2644,7 +2687,7 @@
         <v>1598960344</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -2652,7 +2695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -2660,15 +2703,18 @@
         <v>166</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>70</v>
       </c>
       <c r="B83" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -2691,7 +2737,7 @@
         <v>1300082307</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -2699,7 +2745,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>189</v>
       </c>
@@ -2707,7 +2753,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -2715,7 +2761,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>78</v>
       </c>
@@ -2723,7 +2769,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>32</v>
       </c>
@@ -2731,15 +2777,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>32</v>
       </c>
       <c r="B90" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -2747,7 +2796,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -2770,7 +2819,7 @@
         <v>1544503304</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>57</v>
       </c>
@@ -2778,15 +2827,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>12</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -2802,7 +2854,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -2810,7 +2862,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>121</v>
       </c>
@@ -2818,7 +2870,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -2826,7 +2878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2834,15 +2886,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>67</v>
       </c>
       <c r="B101" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>147</v>
       </c>
@@ -2850,7 +2905,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -2858,7 +2913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -2866,7 +2921,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -2889,15 +2944,18 @@
         <v>1363227747</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>61</v>
       </c>
       <c r="B106" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>61</v>
       </c>
@@ -2905,15 +2963,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -2921,7 +2982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -2929,15 +2990,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>51</v>
       </c>
       <c r="B111" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -2945,7 +3009,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>175</v>
       </c>
@@ -2953,7 +3017,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>55</v>
       </c>
@@ -2961,23 +3025,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>39</v>
       </c>
       <c r="B115" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>65</v>
       </c>
       <c r="B116" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>65</v>
       </c>
@@ -2985,7 +3055,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>222</v>
       </c>
@@ -3008,7 +3078,7 @@
         <v>1473927728</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>92</v>
       </c>
@@ -3016,7 +3086,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>92</v>
       </c>
@@ -3024,7 +3094,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>217</v>
       </c>
@@ -3047,15 +3117,18 @@
         <v>1526127621</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>73</v>
       </c>
       <c r="B122" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -3063,7 +3136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -3071,7 +3144,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -3079,7 +3152,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -3087,7 +3160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -3095,12 +3168,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>49</v>
       </c>
       <c r="B128" t="s">
         <v>50</v>
+      </c>
+      <c r="H128" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
